--- a/data/groupcodes/groupcodes.xlsx
+++ b/data/groupcodes/groupcodes.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="groupcodes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="12">
   <si>
     <t>p_auto</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>non_adpt</t>
+  </si>
+  <si>
+    <t>non_adpt_se</t>
+  </si>
+  <si>
+    <t>apt_se</t>
+  </si>
+  <si>
+    <t>non_adpt_cv</t>
+  </si>
+  <si>
+    <t>adpt_cv</t>
   </si>
 </sst>
 </file>
@@ -860,423 +878,1348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="D2">
+        <v>73.56</v>
+      </c>
+      <c r="E2">
+        <v>1800</v>
+      </c>
+      <c r="F2">
+        <v>1806</v>
+      </c>
+      <c r="G2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>388</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>99.92</v>
+      </c>
+      <c r="D3">
+        <v>99.95</v>
+      </c>
+      <c r="E3">
+        <v>12731</v>
+      </c>
+      <c r="F3">
+        <v>12760</v>
+      </c>
+      <c r="G3">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>620</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>91.86</v>
+      </c>
+      <c r="D4">
+        <v>91.98</v>
+      </c>
+      <c r="E4">
+        <v>13743</v>
+      </c>
+      <c r="F4">
+        <v>13552</v>
+      </c>
+      <c r="G4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>833</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>73.45</v>
+      </c>
+      <c r="D5">
+        <v>73.36</v>
+      </c>
+      <c r="E5">
+        <v>1067</v>
+      </c>
+      <c r="F5">
+        <v>1058</v>
+      </c>
+      <c r="G5">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1066</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>23.74</v>
+      </c>
+      <c r="E6">
+        <v>5722</v>
+      </c>
+      <c r="F6">
+        <v>5801</v>
+      </c>
+      <c r="G6">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
         <v>1090</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>37.53</v>
+      </c>
+      <c r="D7">
+        <v>37.07</v>
+      </c>
+      <c r="E7">
+        <v>1254</v>
+      </c>
+      <c r="F7">
+        <v>1276</v>
+      </c>
+      <c r="G7">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>1538</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>62.49</v>
+      </c>
+      <c r="D8">
+        <v>62.73</v>
+      </c>
+      <c r="E8">
+        <v>3165</v>
+      </c>
+      <c r="F8">
+        <v>3178</v>
+      </c>
+      <c r="G8">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
         <v>1767</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>22844</v>
+      </c>
+      <c r="F9">
+        <v>22833</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
         <v>2135</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>98.18</v>
+      </c>
+      <c r="D10">
+        <v>98.5</v>
+      </c>
+      <c r="E10">
+        <v>13476</v>
+      </c>
+      <c r="F10">
+        <v>13024</v>
+      </c>
+      <c r="G10">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>2208</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>20.34</v>
+      </c>
+      <c r="D11">
+        <v>19.96</v>
+      </c>
+      <c r="E11">
+        <v>609</v>
+      </c>
+      <c r="F11">
+        <v>686</v>
+      </c>
+      <c r="G11">
+        <v>0.1023</v>
+      </c>
+      <c r="H11">
+        <v>0.1153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2623</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>11231</v>
+      </c>
+      <c r="F12">
+        <v>11360</v>
+      </c>
+      <c r="G12">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
         <v>2712</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>61.52</v>
+      </c>
+      <c r="D13">
+        <v>62.07</v>
+      </c>
+      <c r="E13">
+        <v>9924</v>
+      </c>
+      <c r="F13">
+        <v>9856</v>
+      </c>
+      <c r="G13">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14">
         <v>3240</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D14">
+        <v>17.48</v>
+      </c>
+      <c r="E14">
+        <v>3164</v>
+      </c>
+      <c r="F14">
+        <v>3177</v>
+      </c>
+      <c r="G14">
+        <v>3.32E-2</v>
+      </c>
+      <c r="H14">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
         <v>3492</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>13.64</v>
+      </c>
+      <c r="D15">
+        <v>13.18</v>
+      </c>
+      <c r="E15">
+        <v>2106</v>
+      </c>
+      <c r="F15">
+        <v>2060</v>
+      </c>
+      <c r="G15">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="H15">
+        <v>2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16">
         <v>4839</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>70.22</v>
+      </c>
+      <c r="D16">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="E16">
+        <v>3255</v>
+      </c>
+      <c r="F16">
+        <v>3258</v>
+      </c>
+      <c r="G16">
+        <v>2.12E-2</v>
+      </c>
+      <c r="H16">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17">
         <v>5185</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>58.34</v>
+      </c>
+      <c r="D17">
+        <v>59.54</v>
+      </c>
+      <c r="E17">
+        <v>2783</v>
+      </c>
+      <c r="F17">
+        <v>2823</v>
+      </c>
+      <c r="G17">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
         <v>6408</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D18">
+        <v>8.32</v>
+      </c>
+      <c r="E18">
+        <v>728</v>
+      </c>
+      <c r="F18">
+        <v>738</v>
+      </c>
+      <c r="G18">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19">
         <v>6459</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>49.7</v>
+      </c>
+      <c r="D19">
+        <v>50.41</v>
+      </c>
+      <c r="E19">
+        <v>626</v>
+      </c>
+      <c r="F19">
+        <v>626</v>
+      </c>
+      <c r="G19">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20">
         <v>6947</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="D20">
+        <v>72.72</v>
+      </c>
+      <c r="E20">
+        <v>578</v>
+      </c>
+      <c r="F20">
+        <v>572</v>
+      </c>
+      <c r="G20">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21">
         <v>7080</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>33.89</v>
+      </c>
+      <c r="D21">
+        <v>34.22</v>
+      </c>
+      <c r="E21">
+        <v>11518</v>
+      </c>
+      <c r="F21">
+        <v>11432</v>
+      </c>
+      <c r="G21">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H21">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22">
         <v>8427</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>83.27</v>
+      </c>
+      <c r="D22">
+        <v>83.38</v>
+      </c>
+      <c r="E22">
+        <v>765</v>
+      </c>
+      <c r="F22">
+        <v>777</v>
+      </c>
+      <c r="G22">
+        <v>0.1013</v>
+      </c>
+      <c r="H22">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23">
         <v>10022</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23">
+        <v>1163</v>
+      </c>
+      <c r="F23">
+        <v>1086</v>
+      </c>
+      <c r="G23">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.13339999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24">
         <v>10308</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>31.25</v>
+      </c>
+      <c r="D24">
+        <v>31.75</v>
+      </c>
+      <c r="E24">
+        <v>225</v>
+      </c>
+      <c r="F24">
+        <v>237</v>
+      </c>
+      <c r="G24">
+        <v>4.07E-2</v>
+      </c>
+      <c r="H24">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25">
         <v>11037</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>37.49</v>
+      </c>
+      <c r="D25">
+        <v>38.15</v>
+      </c>
+      <c r="E25">
+        <v>929</v>
+      </c>
+      <c r="F25">
+        <v>899</v>
+      </c>
+      <c r="G25">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26">
         <v>11118</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>84.22</v>
+      </c>
+      <c r="D26">
+        <v>84.58</v>
+      </c>
+      <c r="E26">
+        <v>2096</v>
+      </c>
+      <c r="F26">
+        <v>2175</v>
+      </c>
+      <c r="G26">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="H26">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27">
         <v>13420</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>51.55</v>
+      </c>
+      <c r="D27">
+        <v>26.33</v>
+      </c>
+      <c r="E27">
+        <v>8196956</v>
+      </c>
+      <c r="F27">
+        <v>171303742</v>
+      </c>
+      <c r="G27">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="H27">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28">
         <v>13439</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>38.85</v>
+      </c>
+      <c r="D28">
+        <v>37.19</v>
+      </c>
+      <c r="E28">
+        <v>370</v>
+      </c>
+      <c r="F28">
+        <v>392</v>
+      </c>
+      <c r="G28">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29">
         <v>13641</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>87.8</v>
+      </c>
+      <c r="D29">
+        <v>87.21</v>
+      </c>
+      <c r="E29">
+        <v>503</v>
+      </c>
+      <c r="F29">
+        <v>495</v>
+      </c>
+      <c r="G29">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="H29">
+        <v>6.13E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30">
         <v>13889</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>62.64</v>
+      </c>
+      <c r="D30">
+        <v>62.98</v>
+      </c>
+      <c r="E30">
+        <v>198</v>
+      </c>
+      <c r="F30">
+        <v>202</v>
+      </c>
+      <c r="G30">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31">
         <v>14044</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>22.23</v>
+      </c>
+      <c r="D31">
+        <v>23.43</v>
+      </c>
+      <c r="E31">
+        <v>221</v>
+      </c>
+      <c r="F31">
+        <v>226</v>
+      </c>
+      <c r="G31">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="H31">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32">
         <v>14176</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>9.09</v>
+      </c>
+      <c r="D32">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E32">
+        <v>2365</v>
+      </c>
+      <c r="F32">
+        <v>2566</v>
+      </c>
+      <c r="G32">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33">
         <v>14257</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>66.13</v>
+      </c>
+      <c r="D33">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E33">
+        <v>391</v>
+      </c>
+      <c r="F33">
+        <v>396</v>
+      </c>
+      <c r="G33">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H33">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34">
         <v>14320</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>63.21</v>
+      </c>
+      <c r="D34">
+        <v>63.17</v>
+      </c>
+      <c r="E34">
+        <v>871</v>
+      </c>
+      <c r="F34">
+        <v>740</v>
+      </c>
+      <c r="G34">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.40360000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35">
         <v>14974</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>71.78</v>
+      </c>
+      <c r="D35">
+        <v>73.69</v>
+      </c>
+      <c r="E35">
+        <v>1876</v>
+      </c>
+      <c r="F35">
+        <v>1811</v>
+      </c>
+      <c r="G35">
+        <v>4.99E-2</v>
+      </c>
+      <c r="H35">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36">
         <v>15199</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>89.05</v>
+      </c>
+      <c r="D36">
+        <v>88.45</v>
+      </c>
+      <c r="E36">
+        <v>143</v>
+      </c>
+      <c r="F36">
+        <v>149</v>
+      </c>
+      <c r="G36">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="H36">
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37">
         <v>18163</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>37.86</v>
+      </c>
+      <c r="D37">
+        <v>37.72</v>
+      </c>
+      <c r="E37">
+        <v>2093</v>
+      </c>
+      <c r="F37">
+        <v>2110</v>
+      </c>
+      <c r="G37">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="H37">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38">
         <v>18767</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D38">
+        <v>3.86</v>
+      </c>
+      <c r="E38">
+        <v>2894</v>
+      </c>
+      <c r="F38">
+        <v>2870</v>
+      </c>
+      <c r="G38">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="H38">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39">
         <v>19020</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>91.39</v>
+      </c>
+      <c r="D39">
+        <v>92.31</v>
+      </c>
+      <c r="E39">
+        <v>1427</v>
+      </c>
+      <c r="F39">
+        <v>1385</v>
+      </c>
+      <c r="G39">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="H39">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40">
         <v>21270</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>90.93</v>
+      </c>
+      <c r="D40">
+        <v>92.11</v>
+      </c>
+      <c r="E40">
+        <v>275</v>
+      </c>
+      <c r="F40">
+        <v>274</v>
+      </c>
+      <c r="G40">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="H40">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41">
         <v>25275</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>26.16</v>
+      </c>
+      <c r="D41">
+        <v>27.03</v>
+      </c>
+      <c r="E41">
+        <v>229</v>
+      </c>
+      <c r="F41">
+        <v>276</v>
+      </c>
+      <c r="G41">
+        <v>0.1925</v>
+      </c>
+      <c r="H41">
+        <v>0.23169999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42">
         <v>27022</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>10.95</v>
+      </c>
+      <c r="D42">
+        <v>11.73</v>
+      </c>
+      <c r="E42">
+        <v>278</v>
+      </c>
+      <c r="F42">
+        <v>284</v>
+      </c>
+      <c r="G42">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43">
         <v>27065</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>66.36</v>
+      </c>
+      <c r="D43">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="E43">
+        <v>250</v>
+      </c>
+      <c r="F43">
+        <v>239</v>
+      </c>
+      <c r="G43">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="H43">
+        <v>6.6799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44">
         <v>29440</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>19.8</v>
+      </c>
+      <c r="D44">
+        <v>20.37</v>
+      </c>
+      <c r="E44">
+        <v>2167</v>
+      </c>
+      <c r="F44">
+        <v>2210</v>
+      </c>
+      <c r="G44">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="H44">
+        <v>0.53690000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45">
         <v>31550</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>63.05</v>
+      </c>
+      <c r="D45">
+        <v>64.72</v>
+      </c>
+      <c r="E45">
+        <v>619</v>
+      </c>
+      <c r="F45">
+        <v>643</v>
+      </c>
+      <c r="G45">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="H45">
+        <v>4.82E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46">
         <v>32301</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>73.33</v>
+      </c>
+      <c r="D46">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E46">
+        <v>713</v>
+      </c>
+      <c r="F46">
+        <v>731</v>
+      </c>
+      <c r="G46">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="H46">
+        <v>9.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47">
         <v>34606</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>27.64</v>
+      </c>
+      <c r="D47">
+        <v>29.43</v>
+      </c>
+      <c r="E47">
+        <v>92</v>
+      </c>
+      <c r="F47">
+        <v>86</v>
+      </c>
+      <c r="G47">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="H47">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48">
         <v>35483</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>52.24</v>
+      </c>
+      <c r="D48">
+        <v>66.39</v>
+      </c>
+      <c r="E48">
+        <v>9831</v>
+      </c>
+      <c r="F48">
+        <v>1634</v>
+      </c>
+      <c r="G48">
+        <v>5.0651999999999999</v>
+      </c>
+      <c r="H48">
+        <v>1.2938000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49">
         <v>37036</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>42.58</v>
+      </c>
+      <c r="D49">
+        <v>42.21</v>
+      </c>
+      <c r="E49">
+        <v>376</v>
+      </c>
+      <c r="F49">
+        <v>380</v>
+      </c>
+      <c r="G49">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50">
         <v>38733</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>63.37</v>
+      </c>
+      <c r="D50">
+        <v>63.82</v>
+      </c>
+      <c r="E50">
+        <v>2992</v>
+      </c>
+      <c r="F50">
+        <v>2819</v>
+      </c>
+      <c r="G50">
+        <v>0.1116</v>
+      </c>
+      <c r="H50">
+        <v>0.10539999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51">
         <v>44598</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>44.53</v>
+      </c>
+      <c r="D51">
+        <v>45.41</v>
+      </c>
+      <c r="E51">
+        <v>214</v>
+      </c>
+      <c r="F51">
+        <v>208</v>
+      </c>
+      <c r="G51">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.17419999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +2227,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +2235,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +2243,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +2251,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +2259,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +2267,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +2275,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +2283,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +2291,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +2299,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +2307,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +2315,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
